--- a/ExamReport/bin/Debug/config/gk_sf.xlsx
+++ b/ExamReport/bin/Debug/config/gk_sf.xlsx
@@ -66,44 +66,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>01122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>02105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>02109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>02128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>02106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>05107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>08121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>08117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,10 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,7 +468,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -481,7 +489,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -489,7 +497,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -497,7 +505,7 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -505,7 +513,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -513,7 +521,7 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -521,7 +529,7 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -529,7 +537,7 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -537,7 +545,7 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -545,7 +553,7 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -553,7 +561,7 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
